--- a/medicine/Soins infirmiers et profession infirmière/Choisir_avec_soin/Choisir_avec_soin.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Choisir_avec_soin/Choisir_avec_soin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choisir avec soin (Choosing Wisely en anglais) est une campagne destinée à faire éviter aux médecins la prescription d'examens ou de traitements médicaux jugés inutiles.
-La campagne est basée sur le concept  « less is More ») qui, lorsqu'il est appliqué à la santé, signifie que « davantage de soins n'est pas forcément bénéfique pour la santé du patient ». Littéralement, « less is More » se traduit par : « moins, c’est plus », mais il peut aussi se comprendre comme « moins, c'est mieux », c'est-à-dire « moins de soins peut amener à des soins meilleurs »[1]. 
+La campagne est basée sur le concept  « less is More ») qui, lorsqu'il est appliqué à la santé, signifie que « davantage de soins n'est pas forcément bénéfique pour la santé du patient ». Littéralement, « less is More » se traduit par : « moins, c’est plus », mais il peut aussi se comprendre comme « moins, c'est mieux », c'est-à-dire « moins de soins peut amener à des soins meilleurs ». 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il prône une médecine qui vise à aider les médecins et les patients à engager un dialogue au sujet des examens, des traitements et des interventions pour déterminer ensemble ceux qui sont nécessaires et ceux qui ne le sont pas[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il prône une médecine qui vise à aider les médecins et les patients à engager un dialogue au sujet des examens, des traitements et des interventions pour déterminer ensemble ceux qui sont nécessaires et ceux qui ne le sont pas.
 Le regroupement de médecins Smartermedicine propose un top 5 des interventions à éviter dans le domaine de la santé :
 Un bilan radiologique chez un patient avec des douleurs lombaires non spécifiques depuis moins de 6 semaines. Une lombalgie est considérée comme non spécifique en l’absence de signes d’alarme (« red flags »), tels qu’un déficit neurologique sévère ou progressif, ou une suspicion de processus malin ou infectieux. Un bilan radiologique dans la lombalgie non spécifique ne modifie pas le pronostic du patient, mais augmente l’exposition aux radiations et les coûts. Sources : Agency for Health Care Research and Quality, National Institute for Health and Care Excellence. Niveau de preuve : méta-analyse d’essais cliniques randomisés.
 Le dosage du PSA pour dépister le cancer de la prostate sans en discuter les risques et bénéfices avec le patient. Les résultats des essais cliniques sont contradictoires sur les bénéfices du dépistage par PSA. Les hommes devraient comprendre les risques de sur-diagnostic et de traitement superflus, ainsi que les conséquences des interventions en cas de dépistage positif. Le dépistage ne devrait pas être fait au-delà de l’âge de 75 ans. Sources : American College of Physicians, National Health Service, Swiss Society of Urology. Niveau de preuve : essais cliniques randomisés
@@ -548,7 +562,9 @@
           <t>Campagnes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs campagnes ont eu lieu pour sensibiliser le grand public à la surconsommation de soins :
 au Canada (Choosing Wisely Canada (en)) ;
